--- a/本地play_UI _easySoftWare/test_cases/魔乐社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/魔乐社区UI自动化测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="16575" activeTab="4"/>
+    <workbookView windowWidth="13905" windowHeight="12885" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="188">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -1931,14 +1931,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2266,26 +2266,26 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="89" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="74.775" style="3" customWidth="1"/>
+    <col min="1" max="1" width="74.775" style="1" customWidth="1"/>
     <col min="2" max="2" width="128.891666666667" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="131" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2293,7 +2293,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2301,7 +2301,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2309,7 +2309,7 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2317,7 +2317,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2325,7 +2325,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2333,7 +2333,7 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2341,7 +2341,7 @@
       </c>
     </row>
     <row r="9" ht="172" customHeight="1" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2349,7 +2349,7 @@
       </c>
     </row>
     <row r="10" ht="145" customHeight="1" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2357,7 +2357,7 @@
       </c>
     </row>
     <row r="11" ht="162" customHeight="1" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2365,7 +2365,7 @@
       </c>
     </row>
     <row r="12" ht="176" customHeight="1" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2373,7 +2373,7 @@
       </c>
     </row>
     <row r="13" ht="192" customHeight="1" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2381,7 +2381,7 @@
       </c>
     </row>
     <row r="14" ht="210" customHeight="1" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2389,7 +2389,7 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2397,7 +2397,7 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2405,7 +2405,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2413,7 +2413,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2421,7 +2421,7 @@
       </c>
     </row>
     <row r="19" ht="140" customHeight="1" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2429,7 +2429,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2437,7 +2437,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2445,7 +2445,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2453,7 +2453,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2484,226 +2484,226 @@
   </cols>
   <sheetData>
     <row r="1" ht="126" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" ht="145" customHeight="1" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="145" customHeight="1" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="128" customHeight="1" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="136" customHeight="1" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="143" customHeight="1" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" ht="172" customHeight="1" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" ht="159" customHeight="1" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" ht="189" customHeight="1" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" ht="121" customHeight="1" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" ht="105" customHeight="1" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" ht="100" customHeight="1" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" ht="134" customHeight="1" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" ht="170" customHeight="1" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" ht="154" customHeight="1" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" ht="83" customHeight="1" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" ht="109" customHeight="1" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" ht="159" customHeight="1" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" ht="157" customHeight="1" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" ht="97" customHeight="1" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21" ht="97" customHeight="1" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" ht="97" customHeight="1" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" ht="106" customHeight="1" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" ht="106" customHeight="1" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" ht="106" customHeight="1" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" ht="106" customHeight="1" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2711,66 +2711,66 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31" ht="136" customHeight="1" spans="1:2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="32" ht="129" customHeight="1" spans="1:2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" ht="136" customHeight="1" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" ht="139" customHeight="1" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:B22"/>
     </sheetView>
   </sheetViews>
@@ -2805,258 +2805,258 @@
   </cols>
   <sheetData>
     <row r="1" ht="81" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" ht="94.5" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" ht="94.5" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" ht="108" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" ht="108" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" ht="135" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" ht="135" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" ht="162" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" ht="81" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" ht="81" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" ht="94.5" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" ht="54" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="15" ht="94.5" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="16" ht="135" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="17" ht="189" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="18" ht="67.5" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="19" ht="81" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="20" ht="81" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" ht="67.5" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="24" ht="67.5" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="25" ht="270" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="26" ht="270" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="27" ht="283.5" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="28" ht="256.5" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="29" ht="81" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="30" ht="81" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="31" ht="108" spans="1:2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="32" ht="108" spans="1:2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3091,7 +3091,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3099,7 +3099,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3107,7 +3107,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3115,7 +3115,7 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3123,7 +3123,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3131,7 +3131,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3139,7 +3139,7 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3147,7 +3147,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3155,7 +3155,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3163,7 +3163,7 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3171,7 +3171,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3179,7 +3179,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -3187,7 +3187,7 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3195,7 +3195,7 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3203,7 +3203,7 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3211,7 +3211,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3219,7 +3219,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3227,7 +3227,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -3235,7 +3235,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3243,7 +3243,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3251,7 +3251,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3267,10 +3267,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -3279,59 +3279,67 @@
     <col min="2" max="2" width="73.75" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" ht="46" customHeight="1" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="4" ht="90" customHeight="1" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" ht="104" customHeight="1" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" ht="98" customHeight="1" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" ht="88" customHeight="1" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>159</v>
       </c>
     </row>

--- a/本地play_UI _easySoftWare/test_cases/魔乐社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/魔乐社区UI自动化测试用例.xlsx
@@ -4,14 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13905" windowHeight="12885" activeTab="4"/>
+    <workbookView windowHeight="17175" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,263 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="188">
-  <si>
-    <t>测试案例名称</t>
-  </si>
-  <si>
-    <t>操作步骤</t>
-  </si>
-  <si>
-    <t>软件中心-主页-软件中心-主页-搜索</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页搜索(全部,mysql)
-主页搜索(按名称,mq)
-主页搜索(按概要,mysq11l)
-主页搜索(按文件,222)
-主页搜索(ubuntu,30)</t>
-  </si>
-  <si>
-    <t>软件中心-主页-软件中心-主页-搜索无结果</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页搜索无结果(全部,222)</t>
-  </si>
-  <si>
-    <t>软件中心-主页-软件中心-主页-了解更多跳转验证</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页了解更多跳转(云服务)
-主页了解更多跳转(数据库)
-主页了解更多跳转(AI)
-主页了解更多跳转(大数据)
-主页了解更多跳转(HPC)
-主页了解更多跳转(分布式存储)
-主页了解更多跳转(其他)</t>
-  </si>
-  <si>
-    <t>软件中心-主页-软件中心-主页-资源跳转验证</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页获取资源跳转(领域应用)
-主页获取资源跳转(RPM)
-主页获取资源跳转(应用镜像)
-主页获取资源跳转(OEPKG)
-主页解决方案跳转(OpenStack)
-主页解决方案跳转(OpenHPC)</t>
-  </si>
-  <si>
-    <t>软件中心-主页-软件中心-主页-社区版本下载验证</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页资源下载(openEuler-24.03-LTS)</t>
-  </si>
-  <si>
-    <t>软件中心-主页-openEuler社区版本-点击跳转验证-1</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页选择openEuler软件包(openEuler-24.03-LTS,领域应用,noarch)
-主页选择openEuler软件包(openEuler-20.03-LTS-SP4,RPM,aarch64)</t>
-  </si>
-  <si>
-    <t>软件中心-主页-openEuler社区版本-点击跳转验证-2</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页选择openEuler软件包(openEuler-22.03-LTS-SP2,RPM,noarch)</t>
-  </si>
-  <si>
-    <t>软件中心-应用领域-搜索和下载</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入领域应用
-领域应用页面选择版本架构和领域(openEuler-22.03-LTS,x86_64,AI|云服务|大数据)
-领域应用页面搜索(b)
-领域应用页面查询结果排序(按首字母)
-领域应用页面查询结果排序(综合排序)
-领域应用页面查询结果分页(24条/页)
-领域应用页面查询结果切页(2)
-领域应用页面查询结果详情(b)</t>
-  </si>
-  <si>
-    <t>软件中心-RPM-搜索和下载</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入RPM页面
-RPM页面选择版本架构和领域(openEuler-23.09,x86_64,AI|其他)
-RPM页面搜索(b)
-RPM页面查询结果排序(按首字母)
-RPM页面查询结果排序(综合排序)
-RPM页面查询结果分页(20条/页)
-RPM页面查询结果切页(4)
-RPM页面查询结果详情(b)</t>
-  </si>
-  <si>
-    <t>软件中心-应用镜像-搜索和复制</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入应用镜像页面
-应用镜像页面选择版本架构和领域(openEuler-22.03-LTS-SP3,x86_64|aarch64,AI|其他|云服务|数据库)
-应用镜像页面搜索(l)
-应用镜像页面查询结果排序(按首字母)
-应用镜像页面查询结果排序(综合排序)
-应用镜像页面查询结果分页(10条/页)
-应用镜像页面查询结果切页(2)
-应用镜像页面查询结果详情(l)</t>
-  </si>
-  <si>
-    <t>软件中心-OEPKG-搜索和下载</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入OEPKG页面
-OEPKG页面选择版本架构和领域(openEuler-24.03-LTS,x86_64,其他)
-OEPKG页面搜索(m)
-OEPKG页面查询结果排序(按首字母)
-OEPKG页面查询结果排序(综合排序)
-OEPKG页面查询结果分页(40条/页)
-OEPKG页面查询结果切页(6)
-OEPKG页面查询结果详情(m)</t>
-  </si>
-  <si>
-    <t>软件中心-软件包详情-快速反馈</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入OEPKG页面
-OEPKG页面选择版本架构和领域(openEuler-24.03-LTS,x86_64,其他)
-OEPKG页面搜索(m)
-OEPKG页面查询结果排序(按首字母)
-OEPKG页面查询结果排序(综合排序)
-OEPKG页面查询结果分页(40条/页)
-OEPKG页面查询结果切页(6)
-OEPKG页面查询结果详情(m)
-软件包详情页面下载
-软件包详情页面反馈(3,测试反馈,快速反馈)</t>
-  </si>
-  <si>
-    <t>软件中心-软件包详情-提交issue</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入OEPKG页面
-OEPKG页面选择版本架构和领域(openEuler-24.03-LTS,x86_64,其他)
-OEPKG页面搜索(m)
-OEPKG页面查询结果排序(按首字母)
-OEPKG页面查询结果排序(综合排序)
-OEPKG页面查询结果分页(40条/页)
-OEPKG页面查询结果切页(6)
-OEPKG页面查询结果详情(m)
-软件包详情页面下载
-软件包详情页面反馈(5,测试反馈,提交issue)</t>
-  </si>
-  <si>
-    <t>软件中心-主页-悬浮窗反馈</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页登录(18048976612,675912zl.@)
-主页悬浮窗反馈(5,测试反馈)</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-反馈后撤销</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-协作平台反馈(Bear,测试反馈内容)
-进入待办中心
-撤销申请(Bear)</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-反馈历史</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-协作平台反馈历史(Bear)</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-审批通过</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-协作平台反馈(Bear,测试反馈内容)
-进入待办中心
-审批通过(Bear,测试通过申请)</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-审批不通过</t>
-  </si>
-  <si>
-    <t xml:space="preserve">进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-协作平台反馈(Bear,测试反馈内容)
-进入待办中心
-审批不通过(Bear,测试不通过申请)
-</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-申请详情</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-进入待办中心
-查看申请详情(Bear)</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-审批详情</t>
-  </si>
-  <si>
-    <t xml:space="preserve">进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-进入待办中心
-查看审批详情
-</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-软件仓库筛选和重置</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-软件仓库筛选重置(xdg-dbus-proxy)
-软件仓库筛选重置(aries-blueprint-parser)
-软件仓库筛选重置(rdiff-backup)
-软件仓库筛选重置(lksctp-tools)</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-待办中心筛选和重置</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-进入待办中心
-待办中心筛选重置(ranger)
-待办中心筛选重置(R-knitr)
-待办中心筛选重置(python-cairosvg)
-待办中心筛选重置(Bear)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
   <si>
     <t>创建公开模型并删除</t>
   </si>
@@ -802,7 +544,7 @@
     <t>modelers-模型-创建公开模型改为私有并删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
 修改当前模型私有
@@ -813,7 +555,7 @@
     <t>modelers-讨论区-创建公开模型创建评论回复并删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
 创建讨论(测试评论标题,测试评论内容)
@@ -825,7 +567,7 @@
     <t>modelers-讨论区-创建公开模型创建评论关闭并删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
 创建讨论(测试评论标题,测试评论内容)
@@ -837,7 +579,7 @@
     <t>modelers-讨论区-创建公开模型创建评论关闭重启并删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
 创建讨论(测试评论标题,测试评论内容)
@@ -850,7 +592,7 @@
     <t>modelers-讨论区-创建公开模型创建讨论区编辑并删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
 创建讨论(测试评论标题,测试评论内容)
@@ -863,7 +605,7 @@
     <t>modelers-讨论区-创建公开模型创建讨论区删除并删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
 创建讨论(测试评论标题,测试评论内容)
@@ -878,7 +620,7 @@
     <t>modelers-讨论区-创建公开模型创建讨论区举报并删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
 创建讨论(测试评论标题,测试评论内容)
@@ -893,7 +635,7 @@
     <t>modelers-讨论区-创建公开模型关闭讨论区再打开再删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
 创建讨论(测试评论标题,测试评论内容)
@@ -910,7 +652,7 @@
     <t>modelers-模型-创建公开模型创建文件下载并删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
 新建文件(test123,111111,提交信息)
@@ -922,7 +664,7 @@
     <t>modelers-模型-创建公开模型修改别名并删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
 修改当前模型别名(测试修改模型别名)
@@ -933,7 +675,7 @@
     <t>modelers-数据集-创建公有数据集并删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建数据集(test2dataset,数据集昵称,公开数据集,mit)
 删除当前数据集
@@ -943,7 +685,7 @@
     <t>modelers-数据集-创建公有数据集修改为私有并删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建数据集(test2dataset,数据集昵称,公开数据集,mit)
 修改当前数据集私有
@@ -954,7 +696,7 @@
     <t>modelers-数据集-创建公有数据集创建文件下载并删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建数据集(test2dataset,数据集昵称,公开数据集,mit)
 新建文件(test123,111111,提交信息)
@@ -966,7 +708,7 @@
     <t>modelers-组织-创建组织(ui自动化测试组织)</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建组织(uiOrg,ui自动化测试组织,upload_pictures/favicon.png,组织介绍666,https://www.baidu.com)
 退出登录</t>
@@ -975,7 +717,7 @@
     <t>modelers-组织-删除组织</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 进入个人中心
 查看我创建的组织
@@ -987,7 +729,7 @@
     <t>modelers-组织-更新组织昵称介绍和链接</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建组织(uiOrg,ui自动化测试组织,upload_pictures/favicon.png,组织介绍666,https://www.baidu.com)
 鼠标悬停在个人头像上
@@ -1002,7 +744,7 @@
     <t>modelers-组织-更新组织封面</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建组织(uiOrg,ui自动化测试组织,upload_pictures/favicon.png,组织介绍666,https://www.baidu.com)
 鼠标悬停在个人头像上
@@ -1021,7 +763,7 @@
     <t>modelers-个人中心-修改用户昵称</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 进入个人中心
 修改用户昵称签名(测试昵称,测试签名)
@@ -1031,7 +773,7 @@
     <t>modelers-个人中心-创建并删除Write令牌</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 进入个人中心
 创建令牌(ceshilingpai,Write)
@@ -1042,7 +784,7 @@
     <t>modelers-个人中心-创建并删除Read令牌</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 进入个人中心
 创建令牌(ceshilingpai,Read)
@@ -1053,7 +795,7 @@
     <t>modelers-个人中心-注销并取消注销</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 进入个人中心
 注销并取消注销
@@ -1063,14 +805,14 @@
     <t>modelers-个人中心-体验反馈</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 体验反馈</t>
   </si>
   <si>
     <t>modelers-个人中心-收藏并取消收藏</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 进入个人中心
 收藏并取消收藏
@@ -1080,7 +822,7 @@
     <t>modelers-个人中心-修改用户头像</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 进入个人中心
 修改用户头像(upload_pictures/abc.png)
@@ -1090,7 +832,7 @@
     <t>modelers-组织-创建组织邀请成员同意加入</t>
   </si>
   <si>
-    <t xml:space="preserve">登录环境(a18801113053,liuyu!198)
+    <t xml:space="preserve">登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建组织(uiOrg,ui自动化测试组织,upload_pictures/favicon.png,组织介绍666,https://www.baidu.com)
 鼠标悬停在个人头像上
@@ -1115,7 +857,7 @@
     <t>modelers-组织-创建组织邀请成员拒绝加入</t>
   </si>
   <si>
-    <t xml:space="preserve">登录环境(a18801113053,liuyu!198)
+    <t xml:space="preserve">登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建组织(uiOrg,ui自动化测试组织,upload_pictures/favicon.png,组织介绍666,https://www.baidu.com)
 鼠标悬停在个人头像上
@@ -1140,7 +882,7 @@
     <t>modelers-组织-创建组织成员申请加入同意</t>
   </si>
   <si>
-    <t xml:space="preserve">登录环境(a18801113053,liuyu!198)
+    <t xml:space="preserve">登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建组织(uiOrg,ui自动化测试组织,upload_pictures/favicon.png,组织介绍666,https://www.baidu.com)
 允许主动申请加入组织
@@ -1166,7 +908,7 @@
     <t>modelers-组织-创建组织创建模型数据集删除后删除组织</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建组织(uiOrg,ui自动化测试组织,upload_pictures/favicon.png,组织介绍666,https://www.baidu.com)
 组织创建数据集(test2dataset,数据集昵称,公开数据集,mit)
@@ -1190,7 +932,7 @@
     <t>modelers-空间-创建并修改公开空间后删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建空间(ceshigongkaikongjian,测试公开空间,upload_pictures/favicon.png,bigscience-openrail-m,Static,CPU,pytorch,公开空间)
 修改当前空间(abc.png,测试私有空间,私有空间)
@@ -1201,7 +943,7 @@
     <t>modelers-空间-创建并修改私有空间后删除</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建空间(ceshisiyoukongjian,测试私有空间,upload_pictures/favicon.png,bigscience-openrail-m,Static,CPU,pytorch,私有空间)
 修改当前空间(abc.png,测试公开空间,公开空间)
@@ -1212,7 +954,7 @@
     <t>modelers-空间-创建公开空间创建内部机密变量并修改后删除同时删除空间</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建空间(ceshigongkaikongjian,测试公开空间,upload_pictures/favicon.png,bigscience-openrail-m,Static,CPU,pytorch,公开空间)
 创建机密变量(是,ceshibianliang,ceshibianliang)
@@ -1225,7 +967,7 @@
     <t>modelers-空间-创建公开空间创建外部机密变量并修改后删除同时删除空间</t>
   </si>
   <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>登录环境(18048976612,675912zl.@)
 鼠标悬停在个人头像上
 悬停方式创建空间(ceshigongkaikongjian,测试公开空间,upload_pictures/favicon.png,bigscience-openrail-m,Static,CPU,pytorch,公开空间)
 创建机密变量(否,ceshibianliang,ceshibianliang)
@@ -1235,60 +977,17 @@
 退出登录</t>
   </si>
   <si>
-    <t>进入生产环境
-进入领域应用
-领域应用页面选择版本架构和领域(openEuler-22.03-LTS,x86_64,AI|云服务|大数据)
-领域应用页面搜索(b)
-领域应用页面查询结果排序(按首字母)
-领域应用页面查询结果排序(综合排序)
-领域应用页面查询结果分页(24条/页)
-领域应用页面查询结果切页(2)
-领域应用页面查询结果详情(libnetwork/x86_64)</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入RPM页面
-RPM页面选择版本架构和领域(openEuler-23.09,x86_64,AI|其他)
-RPM页面搜索(b)
-RPM页面查询结果排序(按首字母)
-RPM页面查询结果排序(综合排序)
-RPM页面查询结果分页(20条/页)
-RPM页面查询结果切页(4)
-RPM页面查询结果详情(gromacs-libs)</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入应用镜像页面
-应用镜像页面选择版本架构和领域(openEuler-22.03-LTS-SP3,x86_64|aarch64,AI|其他|云服务|数据库)
-应用镜像页面搜索(l)
-应用镜像页面查询结果排序(按首字母)
-应用镜像页面查询结果排序(综合排序)
-应用镜像页面查询结果分页(10条/页)
-应用镜像页面查询结果切页(2)
-应用镜像页面查询结果详情(mlflow)</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入OEPKG页面
-OEPKG页面选择版本架构和领域(openEuler-24.03-LTS,x86_64,其他)
-OEPKG页面搜索(m)
-OEPKG页面查询结果排序(按首字母)
-OEPKG页面查询结果排序(综合排序)
-OEPKG页面查询结果分页(40条/页)
-OEPKG页面查询结果切页(6)
-OEPKG页面查询结果详情(admesh)</t>
-  </si>
-  <si>
-    <t>modelers-账号功能-登录功能正常</t>
-  </si>
-  <si>
-    <t>首次登录环境(a18801113053,liuyu!198)</t>
-  </si>
-  <si>
-    <t>modelers-账号功能-登录后退出登录正常</t>
-  </si>
-  <si>
-    <t>登录环境(a18801113053,liuyu!198)
+    <t>测试案例名称</t>
+  </si>
+  <si>
+    <t>操作步骤</t>
+  </si>
+  <si>
+    <t>首次登录环境(18048976612,675912zl.@)
+鼠标悬停在个人头像上
+悬停方式创建模型(gonvxdgh,公开模型,公开模型,mit)
+修改当前模型私有
+删除当前模型
 退出登录</t>
   </si>
 </sst>
@@ -1940,11 +1639,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2263,217 +1962,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="89" customHeight="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="74.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="128.891666666667" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="131" customHeight="1" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="172" customHeight="1" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="145" customHeight="1" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="162" customHeight="1" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" ht="176" customHeight="1" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" ht="192" customHeight="1" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="210" customHeight="1" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" ht="140" customHeight="1" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="316" customHeight="1" outlineLevelCol="2"/>
@@ -2485,301 +1977,579 @@
   <sheetData>
     <row r="1" ht="126" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" ht="145" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="145" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" ht="128" customHeight="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" ht="136" customHeight="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" ht="143" customHeight="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" ht="172" customHeight="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" ht="159" customHeight="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" ht="189" customHeight="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" ht="121" customHeight="1" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" ht="105" customHeight="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" ht="100" customHeight="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" ht="134" customHeight="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" ht="170" customHeight="1" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" ht="154" customHeight="1" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" ht="83" customHeight="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" ht="109" customHeight="1" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>79</v>
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" ht="159" customHeight="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>81</v>
+        <v>34</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" ht="157" customHeight="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>83</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" ht="97" customHeight="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="97" customHeight="1" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="97" customHeight="1" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" ht="106" customHeight="1" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" ht="106" customHeight="1" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" ht="106" customHeight="1" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="106" customHeight="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>97</v>
+        <v>50</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" ht="136" customHeight="1" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="129" customHeight="1" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" ht="136" customHeight="1" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" ht="139" customHeight="1" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
       <c r="A35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="71" style="4" customWidth="1"/>
+    <col min="2" max="2" width="132.558333333333" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="81" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" ht="94.5" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" ht="94.5" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" ht="108" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" ht="135" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" ht="135" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" ht="162" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" ht="94.5" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" ht="81" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" ht="81" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" ht="94.5" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" ht="54" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" ht="94.5" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" ht="135" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" ht="189" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" ht="67.5" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" ht="81" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" ht="81" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" ht="67.5" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" ht="67.5" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="24" ht="67.5" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" ht="270" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" ht="270" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" ht="283.5" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" ht="256.5" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" ht="81" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" ht="81" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" ht="108" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" ht="108" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2792,555 +2562,64 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="71" style="5" customWidth="1"/>
-    <col min="2" max="2" width="132.558333333333" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="81" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" ht="94.5" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" ht="94.5" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" ht="108" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" ht="108" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" ht="135" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" ht="135" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" ht="162" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" ht="94.5" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" ht="81" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" ht="81" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" ht="94.5" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" ht="54" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" ht="94.5" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" ht="135" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" ht="189" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" ht="67.5" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" ht="81" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" ht="81" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" ht="67.5" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" ht="67.5" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" ht="67.5" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" ht="270" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" ht="270" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" ht="283.5" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" ht="256.5" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" ht="81" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" ht="81" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" ht="108" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" ht="108" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="79.1083333333333" customWidth="1"/>
     <col min="2" max="2" width="114" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="51.625" customWidth="1"/>
-    <col min="2" max="2" width="73.75" customWidth="1"/>
-  </cols>
-  <sheetData>
     <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="46" customHeight="1" spans="1:2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" ht="81" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" ht="45" customHeight="1" spans="1:2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" ht="94.5" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" ht="90" customHeight="1" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" ht="94.5" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" ht="104" customHeight="1" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" ht="108" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" ht="98" customHeight="1" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" ht="108" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" ht="88" customHeight="1" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
